--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Azeites e oleo.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Azeites e oleo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Óleo De Soja Soya 900 Ml</t>
+          <t>Oleo De Gergelim Karui 100ml Torrado</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 8,79</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/309aab63-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8907c98d-e05a-4e14-9aa8-028d82979f88.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898270966880</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Óleo De Soja Liza 900ml</t>
+          <t>Oleo Composto Carmelita Lt 500ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,69</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcee26f0-1d38-44fc-bd0a-5c0c996fa727.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adaa91b6-dd99-4093-aede-25494f3077ad.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896096041651</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Azeite De Oliva Andorinha Extra Virgem 500ml</t>
+          <t>Oleo Gergelim Hinomoto 100ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f380613f-e41a-4366-80eb-7f5af52005b8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4a06e7e-98e2-4904-8044-4a1916f6d127.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898270966880</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Azeite De Oliva Cocinero Extra Virgem 500ml</t>
+          <t>Oleo Composto Maria Pet 500ml Tradicinal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a51bdfd4-1558-41ed-b884-6711828966d7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e770677a-2d4e-4525-ac1c-6e26c091876a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896036096437</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Azeite Português Gallo Extra Virgem 500ml</t>
+          <t>Oleo De Gergelim Karui 100ml Cru</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 34,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e2ca68b-30eb-4101-951d-a93e1121f0c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5789a57-b23b-446f-bc93-df40729ffc8e.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898270966880</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Azeite Português De Oliva Extra Virgem Andorinha Vidro 250ml</t>
+          <t>Oleo Composto De Soja Olinda 500ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/63f0ee1d-b98e-4037-a7eb-172a3e114b6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bba0a29-af7e-41d8-a2b9-f7cc7dd165ce.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896057800556</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Azeite De Oliva Borges Extra Virgem 500ml</t>
+          <t>Azeite De Oliva Gallo Tipo Único Vidro 500ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8010232-5e0b-42ad-aecc-6096d24406d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e48e242-324b-4870-9a15-d74b19b24c15.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891042101670</t>
         </is>
       </c>
     </row>
@@ -650,7 +690,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Oleo De Canola Liza 900ml</t>
+          <t>Óleo De Canola Salada 900ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -660,7 +700,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4d5dd6-c332-499e-8972-d779762139e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fc43a5b-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891107111927</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Óleo De Canola Salada 900ml</t>
+          <t>Oleo Comp Maria 500ml Trad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2fc43a5b-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51d388fa-c35c-4979-bef8-1f724b6b8f6e.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896036096437</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Oleo De Milho Liza 900ml</t>
+          <t>Oleo De Canola Liza 900ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae17f831-8f0a-4ee1-9825-a610d53d0e7b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee4d5dd6-c332-499e-8972-d779762139e7.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896036090626</t>
         </is>
       </c>
     </row>
@@ -744,6 +799,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2c9ff182-d0f2-405f-8f00-1b23067e6a50.jpg</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896036098721</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Azeite De Oliva Carbonell Espanhol Extravirgem Vidro 500ml</t>
+          <t>Azeite De Dendê Cepêra 100ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e09e9ecc-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/327bd780-c246-488b-8c66-76f2088662da.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896025800113</t>
         </is>
       </c>
     </row>
@@ -785,692 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Azeite De Oliva Andorinha Tipo Único Pet 500ml</t>
+          <t>Azeite De Dende Cepêra 200ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e2a94e9-1606-4ca1-afe5-0bb195ca9de3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Virgem Morixe 500ml</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a4f7571-00c7-4817-bee0-05f5ab220c6a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Gallo Extra Virgem Vidro 250ml</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 31,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdcbee38-70ea-4895-a34f-f3b4e9643bbd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Gallo Tipo Único Vidro 500ml</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e48e242-324b-4870-9a15-d74b19b24c15.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Oleo Composto De Soja Olinda 500ml</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bba0a29-af7e-41d8-a2b9-f7cc7dd165ce.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Italiano Extra Virgem Filippo Berio Vidro 500ml</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 38,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/033a0756-2756-4c27-b32e-2642e4b26f48.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Gallo Tipo Único Lata 200ml</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f81d45fd-50a8-4d8e-b544-0ef25fd054e4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Oleo Comp Maria 500ml Trad</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51d388fa-c35c-4979-bef8-1f724b6b8f6e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Andorinha Vidro 500ml</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b38cb67-a64d-43b4-b29a-68a36ff851a3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Oleo Composto De Soja Maria Trad. 200ml</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c5c0d35-c6af-4eed-ae81-c25464f1b3c5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Azeite Oliva Campo Dorato 500ml Extra Virgem</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/447c1129-396d-47e3-852d-e0aa17709bbb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Oleo Misto Dochef Pet 500ml</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9af3fd9-971f-4136-88cd-12067f23b3ff.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Gallo Reserva Vid.500ml</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcfaffae-1bf9-4e37-a74a-454f34c476bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Oleo Composto Carmelita Lt 500ml</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/adaa91b6-dd99-4093-aede-25494f3077ad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Oleo Composto Maria Pet 500ml Tradicinal</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e770677a-2d4e-4525-ac1c-6e26c091876a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Azeite De Dendê Cepêra 100ml</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 11,98</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/327bd780-c246-488b-8c66-76f2088662da.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Oleo Gergelim Hinomoto 100ml</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c4a06e7e-98e2-4904-8044-4a1916f6d127.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Azeite De Dende Cepêra 200ml</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/470a77c3-be40-4fcc-b310-46be8e366813.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Azeite Ea Português Extra Virgem Vidro 500ml</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aea014c5-6a3a-4b17-a382-5bc141e1cabd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Oleo De Gergelim Karui 100ml Torrado</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8907c98d-e05a-4e14-9aa8-028d82979f88.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Azeite Chileno Deleyda Extra Virgem 500ml Classic</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58b39cb5-377b-4f6c-b321-586b34e00832.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Azeite De Oliva Bom Dia Lata 500ml</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d661563c-2bb2-46de-af18-d73ffcda5104.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Azeite Extra Virgem Rosmaninho 500ml</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 54,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20cabe2f-46cd-424b-b023-98d3296b7f23.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Oleo De Gergelim Karui 100ml Cru</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 19,98</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5789a57-b23b-446f-bc93-df40729ffc8e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Óleo Comp De Olliva Gallo 500ml Refogar E Grelhar Cebola E Alho</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8be3e7b-de3d-45fb-8126-2e2e9cf90d33.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Azeites e oleo</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Óleo Composto Olliva Gallo 500ml Refogar E Grelhar Extra Suave</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1cbde6d-573b-402c-94e5-7e183ade2ec2.jpg</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896025800113</t>
         </is>
       </c>
     </row>
